--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\0_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA1E358-5B24-4A34-A989-3F84E5A08F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D81106-F050-4F79-90CD-2A134B0DEA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="0" windowWidth="22995" windowHeight="15480" tabRatio="944" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Student_Names_Sorted" sheetId="11" r:id="rId2"/>
-    <sheet name="Student_Names_UnSorted" sheetId="12" r:id="rId3"/>
+    <sheet name="Student_Names_UnSorted" sheetId="12" state="hidden" r:id="rId3"/>
     <sheet name="Assigments" sheetId="3" r:id="rId4"/>
     <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId5"/>
     <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId6"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$F$1:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Student_Names_UnSorted!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Student_Names_UnSorted!$A$1:$E$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="179">
   <si>
     <t>GBA Group</t>
   </si>
@@ -103,24 +103,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Sem 1</t>
-  </si>
-  <si>
-    <t>Sem 2</t>
-  </si>
-  <si>
-    <t>Sem 3</t>
-  </si>
-  <si>
-    <t>Sem 4</t>
-  </si>
-  <si>
-    <t>Sem 5</t>
-  </si>
-  <si>
-    <t>Sem 6</t>
-  </si>
-  <si>
     <t>Participation</t>
   </si>
   <si>
@@ -596,13 +578,16 @@
   </si>
   <si>
     <t>Find your local number: https://suss.zoom.us/u/advAWtJVT7</t>
+  </si>
+  <si>
+    <t>ISSAC CHRISTOPHER ONG WEN XUAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,16 +740,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,8 +951,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1166,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1228,7 +1269,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,40 +1314,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1416,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1414,10 +1493,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1754,12 +1829,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1769,22 +1844,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -1794,17 +1869,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1814,27 +1889,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1844,600 +1919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="F1:F44" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}"/>
-  <mergeCells count="23">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F22:I22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C821532-E630-474E-9BC8-FF49A7862625}">
-  <dimension ref="A1:E58"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2488,647 +1973,1772 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="21">
+        <v>107858</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="24">
+        <v>106680</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="24">
+        <v>67815</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="27">
+        <v>108317</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="21">
+        <v>93202</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="24">
+        <v>83685</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="26">
+        <v>2</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="24">
+        <v>16137</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="27">
+        <v>107089</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="21">
+        <v>59913</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="24">
+        <v>68340</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="24">
+        <v>106674</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="27">
+        <v>100385</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="21">
+        <v>94688</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="23">
+        <v>4</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24">
+        <v>83728</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="26">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="24">
+        <v>108623</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44071</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4</v>
+      </c>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21">
+        <v>33111</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="23">
+        <v>5</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="24">
+        <v>94023</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="26">
+        <v>5</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="24">
+        <v>67833</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="26">
+        <v>5</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="27">
+        <v>102193</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="21">
+        <v>101741</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="24">
+        <v>48564</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="26">
+        <v>6</v>
+      </c>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="24">
+        <v>92768</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="26">
+        <v>6</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="27">
+        <v>68314</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="29">
+        <v>6</v>
+      </c>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="21">
+        <v>103589</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="23">
+        <v>7</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="24">
+        <v>99999</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="26">
+        <v>7</v>
+      </c>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="24">
+        <v>94296</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="26">
+        <v>7</v>
+      </c>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="27">
+        <v>108097</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="29">
+        <v>7</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="21">
+        <v>99950</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="23">
+        <v>8</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="24">
+        <v>83698</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="26">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="24">
+        <v>83940</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="26">
+        <v>8</v>
+      </c>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="27">
+        <v>61579</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="29">
+        <v>8</v>
+      </c>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="21">
+        <v>82835</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="23">
+        <v>9</v>
+      </c>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="24">
+        <v>66889</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="26">
+        <v>9</v>
+      </c>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24">
+        <v>66399</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="26">
+        <v>9</v>
+      </c>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="27">
+        <v>102118</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="29">
+        <v>9</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="21">
+        <v>108630</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="24">
+        <v>107046</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="26">
+        <v>10</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="24">
+        <v>76490</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="26">
+        <v>10</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="27">
+        <v>99709</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="29">
+        <v>10</v>
+      </c>
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="21">
+        <v>109609</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="23">
+        <v>11</v>
+      </c>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="24">
+        <v>106813</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="26">
+        <v>11</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="24">
+        <v>101349</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="26">
+        <v>11</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="27">
+        <v>68706</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="29">
+        <v>11</v>
+      </c>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="21">
+        <v>108473</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="23">
+        <v>12</v>
+      </c>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="24">
+        <v>109458</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="26">
+        <v>12</v>
+      </c>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="24">
+        <v>94685</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="26">
+        <v>12</v>
+      </c>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="27">
+        <v>100483</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="29">
+        <v>12</v>
+      </c>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23">
+        <v>13</v>
+      </c>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="24">
+        <v>92730</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="26">
+        <v>13</v>
+      </c>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="24">
+        <v>100013</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="26">
+        <v>13</v>
+      </c>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="27">
+        <v>107784</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="29">
+        <v>13</v>
+      </c>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="21">
+        <v>83848</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="23">
+        <v>14</v>
+      </c>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="24">
+        <v>65571</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="26">
+        <v>14</v>
+      </c>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="24">
+        <v>86231</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="26">
+        <v>14</v>
+      </c>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="24">
+        <v>107026</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="26">
+        <v>14</v>
+      </c>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="27">
+        <v>82413</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="29">
+        <v>14</v>
+      </c>
+      <c r="E59" s="29"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:F44" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D59">
+    <sortCondition ref="D3:D59"/>
+    <sortCondition sortBy="cellColor" ref="A3:A59" dxfId="1"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C821532-E630-474E-9BC8-FF49A7862625}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.7109375" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="15">
         <v>92730</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="15">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="15">
         <v>66889</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="15">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15">
         <v>106680</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="20">
         <v>33111</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" s="15">
         <v>83728</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="15">
         <v>67815</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="15">
         <v>109458</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="15">
         <v>68340</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="15">
         <v>66399</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="15">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20">
         <v>109609</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="15">
         <v>107046</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="15">
         <v>100013</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="15">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="20">
         <v>108473</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>51</v>
+      <c r="C15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="20">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="20">
         <v>94688</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="15">
         <v>83698</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D17" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="15">
         <v>106813</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D18" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15">
         <v>94685</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D19" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" s="15">
         <v>83685</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="15">
+        <v>55</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="20">
         <v>103589</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B22" s="15">
         <v>65571</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D22" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B23" s="15">
         <v>106674</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="15">
         <v>99999</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D24" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15">
         <v>108623</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="15">
+        <v>65</v>
+      </c>
+      <c r="D25" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="20">
         <v>107858</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="15">
+      <c r="C26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="20">
         <v>108630</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B28" s="15">
         <v>108317</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B29" s="15">
         <v>48564</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D29" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B30" s="15">
         <v>76490</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D30" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" s="15">
         <v>94023</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D31" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B32" s="15">
         <v>83940</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D32" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B33" s="15">
         <v>102118</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D33" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" s="15">
         <v>94296</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D34" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B35" s="15">
         <v>86231</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D35" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B36" s="15">
         <v>44071</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B37" s="15">
         <v>107784</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D37" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B38" s="15">
         <v>107026</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="15">
+        <v>91</v>
+      </c>
+      <c r="D38" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="20">
         <v>59913</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B40" s="15">
         <v>99709</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D40" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B41" s="15">
         <v>16137</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B42" s="15">
         <v>101349</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D42" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B43" s="15">
         <v>107089</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="15">
+        <v>101</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="20">
         <v>99950</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B45" s="15">
         <v>82413</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D45" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B46" s="15">
         <v>100385</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B47" s="15">
         <v>108097</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D47" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B48" s="15">
         <v>67833</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="15">
+        <v>111</v>
+      </c>
+      <c r="D48" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="20">
         <v>93202</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B50" s="15">
         <v>100483</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D50" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B51" s="15">
         <v>61579</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D51" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B52" s="15">
         <v>92768</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D52" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B53" s="15">
         <v>68314</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="15">
+        <v>121</v>
+      </c>
+      <c r="D53" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="20">
         <v>82835</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B55" s="15">
         <v>68706</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D55" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B56" s="15">
         <v>102193</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="15">
+        <v>127</v>
+      </c>
+      <c r="D56" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="20">
         <v>101741</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="15">
+      <c r="C57" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="20">
         <v>83848</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>137</v>
+      <c r="C58" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3256,12 +3866,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3271,22 +3881,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3296,17 +3906,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3316,27 +3926,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3365,12 +3975,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3380,22 +3990,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3405,17 +4015,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3425,27 +4035,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3474,12 +4084,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3489,22 +4099,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3514,17 +4124,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3534,27 +4144,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3583,12 +4193,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3598,22 +4208,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3623,17 +4233,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3643,27 +4253,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3692,12 +4302,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3707,22 +4317,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3732,17 +4342,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3752,27 +4362,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\0_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D81106-F050-4F79-90CD-2A134B0DEA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BEE4F-E9A0-4476-9B96-9C8EFF0CF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
   <si>
     <t>GBA Group</t>
   </si>
@@ -581,13 +581,34 @@
   </si>
   <si>
     <t>ISSAC CHRISTOPHER ONG WEN XUAN</t>
+  </si>
+  <si>
+    <t>Participation L1</t>
+  </si>
+  <si>
+    <t>Participation L2</t>
+  </si>
+  <si>
+    <t>Participation L3</t>
+  </si>
+  <si>
+    <t>Participation L4</t>
+  </si>
+  <si>
+    <t>Participation L5</t>
+  </si>
+  <si>
+    <t>Participation L6</t>
+  </si>
+  <si>
+    <t>3 groups per lesson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +760,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1314,18 +1341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,16 +1374,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,15 +1443,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1812,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14B833E-41D3-4052-8B4D-DD3C579AD3FE}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A28"/>
     </sheetView>
   </sheetViews>
@@ -1919,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D59"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1931,12 +1950,7 @@
     <col min="2" max="2" width="8.140625" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="20.7109375" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -1972,894 +1986,1321 @@
     <col min="43" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>107858</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>106680</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>67815</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <v>108317</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>93202</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>83685</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>2</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>16137</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="23">
         <v>107089</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>2</v>
       </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>59913</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>68340</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>3</v>
       </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>106674</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>3</v>
       </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="23">
         <v>100385</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>94688</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <v>4</v>
       </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>83728</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>4</v>
       </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="20">
         <v>108623</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <v>4</v>
       </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="23">
         <v>44071</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>4</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>33111</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <v>5</v>
       </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>94023</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <v>5</v>
       </c>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="20">
         <v>67833</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>5</v>
       </c>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="23">
         <v>102193</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="25">
         <v>5</v>
       </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>101741</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="20">
         <v>48564</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>6</v>
       </c>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="E24" s="22">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>92768</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>6</v>
       </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="E25" s="22">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="23">
         <v>68314</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="25">
         <v>6</v>
       </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="E26" s="25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>103589</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>7</v>
       </c>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="E27" s="26">
+        <v>1</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>99999</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>7</v>
       </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="20">
         <v>94296</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>7</v>
       </c>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="23">
         <v>108097</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="25">
         <v>7</v>
       </c>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="17">
         <v>99950</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <v>8</v>
       </c>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="E31" s="26">
+        <v>1</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="20">
         <v>83698</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="22">
         <v>8</v>
       </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="20">
         <v>83940</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="22">
         <v>8</v>
       </c>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="23">
         <v>61579</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="25">
         <v>8</v>
       </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="17">
         <v>82835</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
         <v>9</v>
       </c>
-      <c r="E35" s="30"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="E35" s="26">
+        <v>1</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>66889</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="22">
         <v>9</v>
       </c>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>66399</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="22">
         <v>9</v>
       </c>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="23">
         <v>102118</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="25">
         <v>9</v>
       </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="E38" s="25">
+        <v>1</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="17">
         <v>108630</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="19">
         <v>10</v>
       </c>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="E39" s="26">
+        <v>1</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="20">
         <v>107046</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="22">
         <v>10</v>
       </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="20">
         <v>76490</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="22">
         <v>10</v>
       </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="23">
         <v>99709</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="25">
         <v>10</v>
       </c>
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="E42" s="25">
+        <v>1</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="17">
         <v>109609</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="19">
         <v>11</v>
       </c>
-      <c r="E43" s="30"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="E43" s="26">
+        <v>1</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="20">
         <v>106813</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="22">
         <v>11</v>
       </c>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="20">
         <v>101349</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="22">
         <v>11</v>
       </c>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="E45" s="22">
+        <v>1</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="23">
         <v>68706</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="25">
         <v>11</v>
       </c>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="E46" s="25">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="17">
         <v>108473</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="19">
         <v>12</v>
       </c>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="E47" s="26">
+        <v>1</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="20">
         <v>109458</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="22">
         <v>12</v>
       </c>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="20">
         <v>94685</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="22">
         <v>12</v>
       </c>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="23">
         <v>100483</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="25">
         <v>12</v>
       </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="E50" s="25">
+        <v>1</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19">
         <v>13</v>
       </c>
-      <c r="E51" s="30"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="E51" s="26">
+        <v>1</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="20">
         <v>92730</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="22">
         <v>13</v>
       </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="E52" s="22">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="20">
         <v>100013</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="22">
         <v>13</v>
       </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="E53" s="22">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="23">
         <v>107784</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="25">
         <v>13</v>
       </c>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="E54" s="25">
+        <v>1</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="17">
         <v>83848</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="19">
         <v>14</v>
       </c>
-      <c r="E55" s="30"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="20">
         <v>65571</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="22">
         <v>14</v>
       </c>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="E56" s="22">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="20">
         <v>86231</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="22">
         <v>14</v>
       </c>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="E57" s="22">
+        <v>1</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="20">
         <v>107026</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="22">
         <v>14</v>
       </c>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="E58" s="22">
+        <v>1</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="23">
         <v>82413</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="25">
         <v>14</v>
       </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="25">
+        <v>1</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F44" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D59">
     <sortCondition ref="D3:D59"/>
-    <sortCondition sortBy="cellColor" ref="A3:A59" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A3:A59" dxfId="0"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2920,28 +3361,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2986,16 +3427,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>33111</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <v>5</v>
       </c>
     </row>
@@ -3070,16 +3511,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>109609</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3112,30 +3553,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>108473</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>94688</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>4</v>
       </c>
     </row>
@@ -3196,16 +3637,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>103589</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>7</v>
       </c>
     </row>
@@ -3266,30 +3707,30 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <v>107858</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <v>108630</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3448,16 +3889,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="16">
         <v>59913</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>3</v>
       </c>
     </row>
@@ -3518,16 +3959,16 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="16">
         <v>99950</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="16">
         <v>8</v>
       </c>
     </row>
@@ -3588,16 +4029,16 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="16">
         <v>93202</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3658,16 +4099,16 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="16">
         <v>82835</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="16">
         <v>9</v>
       </c>
     </row>
@@ -3700,40 +4141,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="16">
         <v>101741</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="16">
         <v>83848</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16">
         <v>13</v>
       </c>
     </row>

--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\0_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BEE4F-E9A0-4476-9B96-9C8EFF0CF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B85B3-E00D-4B44-9B0A-F3A919D096B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$F$1:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$J$1:$J$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Student_Names_UnSorted!$A$1:$E$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="190">
   <si>
     <t>GBA Group</t>
   </si>
@@ -602,12 +602,27 @@
   </si>
   <si>
     <t>3 groups per lesson</t>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Normalize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +996,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1323,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,6 +1399,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,6 +1572,99 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="13422598" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1232011</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1440256</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6867D2F9-808D-001E-1578-21D30109F787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10362404" y="974045"/>
+          <a:ext cx="4086281" cy="2968255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1741714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>938841</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0734FB5-4CEC-483D-92D1-F59CF732D6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14750143" y="1074965"/>
+          <a:ext cx="4054877" cy="2895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,19 +2100,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="20.7109375" style="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="56.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="15" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.7109375" style="15" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="15" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15" style="15" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -1986,54 +2149,61 @@
     <col min="43" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
@@ -2049,13 +2219,25 @@
       <c r="E3" s="26">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="37">
+        <v>5</v>
+      </c>
+      <c r="K3" s="15">
+        <f>SUM(E3:J3)</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="39">
+        <f>K3/MAX(K3:K59)*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
@@ -2071,13 +2253,25 @@
       <c r="E4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="37">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K59" si="0">SUM(E4:J4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="39">
+        <f t="shared" ref="L4:L59" si="1">K4/MAX(K4:K60)*5</f>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
@@ -2093,13 +2287,31 @@
       <c r="E5" s="22">
         <v>1</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30">
+        <v>1</v>
+      </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="37">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="39">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>70</v>
       </c>
@@ -2115,13 +2327,25 @@
       <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="37">
+        <v>5</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L6" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
@@ -2137,13 +2361,25 @@
       <c r="E7" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>54</v>
       </c>
@@ -2159,13 +2395,25 @@
       <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>96</v>
       </c>
@@ -2181,13 +2429,25 @@
       <c r="E9" s="22">
         <v>1</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
+        <v>-1</v>
+      </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>100</v>
       </c>
@@ -2203,13 +2463,25 @@
       <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>92</v>
       </c>
@@ -2225,13 +2497,25 @@
       <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="37">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L11" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>34</v>
       </c>
@@ -2247,14 +2531,26 @@
       <c r="E12" s="22">
         <v>1</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="37">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="20">
@@ -2269,14 +2565,26 @@
       <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="23">
@@ -2291,13 +2599,25 @@
       <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>46</v>
       </c>
@@ -2313,14 +2633,26 @@
       <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="J15" s="37">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L15" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="20">
@@ -2335,13 +2667,25 @@
       <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>64</v>
       </c>
@@ -2357,14 +2701,26 @@
       <c r="E17" s="22">
         <v>1</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="30"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="J17" s="37">
+        <v>5</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L17" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="23">
@@ -2379,13 +2735,25 @@
       <c r="E18" s="25">
         <v>1</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
@@ -2401,13 +2769,25 @@
       <c r="E19" s="26">
         <v>1</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="29"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>76</v>
       </c>
@@ -2423,13 +2803,25 @@
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>110</v>
       </c>
@@ -2445,14 +2837,26 @@
       <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="30">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="J21" s="38">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L21" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="23">
@@ -2467,13 +2871,25 @@
       <c r="E22" s="25">
         <v>1</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>128</v>
       </c>
@@ -2489,13 +2905,25 @@
       <c r="E23" s="26">
         <v>1</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="H23" s="29"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="37">
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L23" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>72</v>
       </c>
@@ -2511,13 +2939,25 @@
       <c r="E24" s="22">
         <v>1</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
+        <v>1</v>
+      </c>
+      <c r="H24" s="30"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>118</v>
       </c>
@@ -2533,13 +2973,25 @@
       <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30">
+        <v>1</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="37">
+        <v>5</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L25" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
@@ -2555,14 +3007,26 @@
       <c r="E26" s="25">
         <v>1</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31">
+        <v>-1</v>
+      </c>
       <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="J26" s="31">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="17">
@@ -2577,13 +3041,25 @@
       <c r="E27" s="26">
         <v>1</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="36">
+        <v>1</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>62</v>
       </c>
@@ -2599,14 +3075,26 @@
       <c r="E28" s="22">
         <v>1</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="F28" s="30">
+        <v>1</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="J28" s="37">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="20">
@@ -2621,13 +3109,25 @@
       <c r="E29" s="22">
         <v>1</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>108</v>
       </c>
@@ -2643,13 +3143,25 @@
       <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
       <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="37">
+        <v>5</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>102</v>
       </c>
@@ -2665,13 +3177,25 @@
       <c r="E31" s="26">
         <v>1</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29">
+        <v>1</v>
+      </c>
       <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="37">
+        <v>5</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L31" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>48</v>
       </c>
@@ -2687,14 +3211,26 @@
       <c r="E32" s="22">
         <v>1</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="F32" s="30">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="J32" s="37">
+        <v>5</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="20">
@@ -2709,13 +3245,25 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="29">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>116</v>
       </c>
@@ -2731,13 +3279,25 @@
       <c r="E34" s="25">
         <v>1</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="31"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="37">
+        <v>5</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L34" s="39">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>122</v>
       </c>
@@ -2753,13 +3313,25 @@
       <c r="E35" s="26">
         <v>1</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>22</v>
       </c>
@@ -2775,13 +3347,25 @@
       <c r="E36" s="22">
         <v>1</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="F36" s="30">
+        <v>1</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="30">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L36" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>36</v>
       </c>
@@ -2797,14 +3381,26 @@
       <c r="E37" s="22">
         <v>1</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30">
+        <v>1</v>
+      </c>
       <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="J37" s="38">
+        <v>4</v>
+      </c>
+      <c r="K37" s="15">
+        <f>SUM(E37:J37)</f>
+        <v>6</v>
+      </c>
+      <c r="L37" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="23">
@@ -2819,13 +3415,25 @@
       <c r="E38" s="25">
         <v>1</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>68</v>
       </c>
@@ -2841,13 +3449,25 @@
       <c r="E39" s="26">
         <v>1</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="29">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L39" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>40</v>
       </c>
@@ -2863,13 +3483,25 @@
       <c r="E40" s="22">
         <v>1</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30">
+        <v>1</v>
+      </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="37">
+        <v>5</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L40" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>74</v>
       </c>
@@ -2885,13 +3517,25 @@
       <c r="E41" s="22">
         <v>1</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30">
+        <v>1</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="37">
+        <v>5</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L41" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
@@ -2907,14 +3551,26 @@
       <c r="E42" s="25">
         <v>1</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31">
+        <v>-1</v>
+      </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="J42" s="37">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="17">
@@ -2929,13 +3585,25 @@
       <c r="E43" s="26">
         <v>1</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>50</v>
       </c>
@@ -2951,14 +3619,26 @@
       <c r="E44" s="22">
         <v>1</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="37">
+        <v>3</v>
+      </c>
+      <c r="K44" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L44" s="39">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B45" s="20">
@@ -2973,13 +3653,25 @@
       <c r="E45" s="22">
         <v>1</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="30">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>124</v>
       </c>
@@ -2995,14 +3687,26 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="31">
+        <v>1</v>
+      </c>
+      <c r="G46" s="31"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="J46" s="37">
+        <v>4</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L46" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="17">
@@ -3017,13 +3721,25 @@
       <c r="E47" s="26">
         <v>1</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="38">
+        <v>4</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L47" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>32</v>
       </c>
@@ -3039,13 +3755,25 @@
       <c r="E48" s="22">
         <v>1</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30">
+        <v>1</v>
+      </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="30">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L48" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>52</v>
       </c>
@@ -3061,14 +3789,26 @@
       <c r="E49" s="22">
         <v>1</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30">
+        <v>-1</v>
+      </c>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="J49" s="30">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B50" s="23">
@@ -3083,13 +3823,25 @@
       <c r="E50" s="25">
         <v>1</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="30">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>178</v>
       </c>
@@ -3101,14 +3853,26 @@
       <c r="E51" s="26">
         <v>1</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="37">
+        <v>3</v>
+      </c>
+      <c r="K51" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L51" s="39">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="20">
@@ -3123,14 +3887,26 @@
       <c r="E52" s="22">
         <v>1</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="37">
+        <v>5</v>
+      </c>
+      <c r="K52" s="15">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="L52" s="39">
+        <f t="shared" si="1"/>
+        <v>4.6428571428571432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="20">
@@ -3145,13 +3921,25 @@
       <c r="E53" s="22">
         <v>1</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="37">
+        <v>4</v>
+      </c>
+      <c r="K53" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L53" s="39">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>88</v>
       </c>
@@ -3167,13 +3955,25 @@
       <c r="E54" s="25">
         <v>1</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="30">
+        <v>1</v>
+      </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="37">
+        <v>3</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L54" s="39">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>130</v>
       </c>
@@ -3189,14 +3989,26 @@
       <c r="E55" s="26">
         <v>1</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="29">
+        <v>1</v>
+      </c>
+      <c r="G55" s="29"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="J55" s="37">
+        <v>4</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L55" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="20">
@@ -3211,14 +4023,26 @@
       <c r="E56" s="22">
         <v>1</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="35">
+        <v>1</v>
+      </c>
+      <c r="J56" s="37">
+        <v>5</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L56" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B57" s="20">
@@ -3233,14 +4057,26 @@
       <c r="E57" s="22">
         <v>1</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="30">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="20">
@@ -3255,13 +4091,25 @@
       <c r="E58" s="22">
         <v>1</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="35">
+        <v>0</v>
+      </c>
+      <c r="J58" s="37">
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="39">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>104</v>
       </c>
@@ -3277,31 +4125,45 @@
       <c r="E59" s="25">
         <v>1</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31">
+        <v>1</v>
+      </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="J59" s="37">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D59">
     <sortCondition ref="D3:D59"/>
     <sortCondition sortBy="cellColor" ref="A3:A59" dxfId="0"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3361,28 +4223,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">

--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\0_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B85B3-E00D-4B44-9B0A-F3A919D096B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16275FBB-785C-4481-889D-BBAB45293B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1065" windowWidth="11940" windowHeight="14130" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$J$1:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$A$1:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Student_Names_UnSorted!$A$1:$E$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D59"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2112,8 +2112,8 @@
     <col min="2" max="2" width="8.140625" style="15" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="20.7109375" style="15" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="15" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15" style="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="15" style="15" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15" style="15" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -2222,19 +2222,25 @@
       <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
       <c r="J3" s="37">
         <v>5</v>
       </c>
       <c r="K3" s="15">
         <f>SUM(E3:J3)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L3" s="39">
-        <f>K3/MAX(K3:K59)*5</f>
-        <v>5</v>
+        <f>K3/MAX(K3:K59)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2256,19 +2262,25 @@
       <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
       <c r="J4" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K59" si="0">SUM(E4:J4)</f>
-        <v>2</v>
+        <f>SUM(E4:J4)</f>
+        <v>6</v>
       </c>
       <c r="L4" s="39">
-        <f t="shared" ref="L4:L59" si="1">K4/MAX(K4:K60)*5</f>
-        <v>1.4285714285714284</v>
+        <f t="shared" ref="L4:L59" si="0">K4/MAX(K4:K60)*100</f>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2287,22 +2299,26 @@
       <c r="E5" s="22">
         <v>1</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30">
         <v>1</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
       <c r="J5" s="37">
         <v>3</v>
       </c>
       <c r="K5" s="15">
+        <f t="shared" ref="K4:K59" si="1">SUM(E5:J5)</f>
+        <v>7</v>
+      </c>
+      <c r="L5" s="39">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L5" s="39">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285716</v>
+        <v>70</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>186</v>
@@ -2332,17 +2348,19 @@
       <c r="H6" s="31">
         <v>1</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
       <c r="J6" s="37">
         <v>5</v>
       </c>
       <c r="K6" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L6" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L6" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2361,22 +2379,28 @@
       <c r="E7" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
       <c r="H7" s="29">
         <v>-1</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
       <c r="J7" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2396,21 +2420,25 @@
         <v>1</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
       <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
       <c r="J8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L8" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L8" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2429,22 +2457,28 @@
       <c r="E9" s="22">
         <v>1</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
       <c r="H9" s="30">
         <v>-1</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
       <c r="J9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2463,22 +2497,28 @@
       <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
       <c r="H10" s="31">
         <v>-1</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
       <c r="J10" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2502,17 +2542,19 @@
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="26"/>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
       <c r="J11" s="37">
         <v>5</v>
       </c>
       <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L11" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L11" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2531,22 +2573,28 @@
       <c r="E12" s="22">
         <v>1</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
       <c r="H12" s="30">
         <v>-1</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>1</v>
+      </c>
       <c r="J12" s="37">
         <v>4</v>
       </c>
       <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="39">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="39">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428568</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2565,22 +2613,28 @@
       <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1</v>
+      </c>
       <c r="I13" s="28">
         <v>-1</v>
       </c>
       <c r="J13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2599,22 +2653,28 @@
       <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1</v>
+      </c>
       <c r="I14" s="27">
         <v>-1</v>
       </c>
       <c r="J14" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2634,21 +2694,25 @@
         <v>1</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
       <c r="H15" s="29">
         <v>1</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
       <c r="J15" s="37">
         <v>5</v>
       </c>
       <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L15" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L15" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2667,22 +2731,28 @@
       <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="28"/>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
       <c r="I16" s="28">
         <v>-1</v>
       </c>
       <c r="J16" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L16" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2706,17 +2776,19 @@
         <v>1</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22">
+        <v>1</v>
+      </c>
       <c r="J17" s="37">
         <v>5</v>
       </c>
       <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L17" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L17" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2735,22 +2807,28 @@
       <c r="E18" s="25">
         <v>1</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="27"/>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1</v>
+      </c>
       <c r="I18" s="27">
         <v>-1</v>
       </c>
       <c r="J18" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2769,22 +2847,28 @@
       <c r="E19" s="26">
         <v>1</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
       <c r="G19" s="29">
         <v>-1</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26"/>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
       <c r="J19" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2803,22 +2887,28 @@
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30">
+        <v>1</v>
+      </c>
       <c r="H20" s="30">
         <v>-1</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>1</v>
+      </c>
       <c r="J20" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,19 +2930,23 @@
       <c r="F21" s="30">
         <v>1</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
       <c r="J21" s="38">
         <v>5</v>
       </c>
       <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L21" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L21" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,22 +2965,28 @@
       <c r="E22" s="25">
         <v>1</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="27"/>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="27">
+        <v>1</v>
+      </c>
       <c r="I22" s="27">
         <v>-1</v>
       </c>
       <c r="J22" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2910,17 +3010,19 @@
         <v>1</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
       <c r="J23" s="37">
         <v>5</v>
       </c>
       <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L23" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L23" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2939,22 +3041,26 @@
       <c r="E24" s="22">
         <v>1</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
       <c r="J24" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L24" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L24" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,22 +3079,28 @@
       <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
       <c r="H25" s="30">
         <v>1</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
       <c r="J25" s="37">
         <v>5</v>
       </c>
       <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L25" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L25" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3008,21 +3120,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
       <c r="H26" s="31">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
       <c r="J26" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3041,22 +3157,26 @@
       <c r="E27" s="26">
         <v>1</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="36">
         <v>1</v>
       </c>
       <c r="J27" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L27" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3078,19 +3198,23 @@
       <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="30">
+        <v>1</v>
+      </c>
       <c r="H28" s="30"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="22">
+        <v>1</v>
+      </c>
       <c r="J28" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L28" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3109,22 +3233,28 @@
       <c r="E29" s="22">
         <v>1</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28"/>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1</v>
+      </c>
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
       <c r="I29" s="27">
         <v>-1</v>
       </c>
       <c r="J29" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3143,22 +3273,26 @@
       <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31">
         <v>1</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="25">
+        <v>1</v>
+      </c>
       <c r="J30" s="37">
         <v>5</v>
       </c>
       <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L30" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L30" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,21 +3312,25 @@
         <v>1</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="29">
+        <v>1</v>
+      </c>
       <c r="H31" s="29">
         <v>1</v>
       </c>
-      <c r="I31" s="26"/>
+      <c r="I31" s="26">
+        <v>1</v>
+      </c>
       <c r="J31" s="37">
         <v>5</v>
       </c>
       <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L31" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L31" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,17 +3354,19 @@
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="22">
+        <v>1</v>
+      </c>
       <c r="J32" s="37">
         <v>5</v>
       </c>
       <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L32" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L32" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3245,22 +3385,28 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="28"/>
+      <c r="F33" s="30">
+        <v>1</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1</v>
+      </c>
+      <c r="H33" s="28">
+        <v>1</v>
+      </c>
       <c r="I33" s="27">
         <v>-1</v>
       </c>
       <c r="J33" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L33" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3279,7 +3425,9 @@
       <c r="E34" s="25">
         <v>1</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
       <c r="G34" s="30">
         <v>-1</v>
       </c>
@@ -3289,12 +3437,12 @@
         <v>5</v>
       </c>
       <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L34" s="39">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L34" s="39">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285716</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3313,22 +3461,28 @@
       <c r="E35" s="26">
         <v>1</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="29">
+        <v>1</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1</v>
+      </c>
       <c r="H35" s="29">
         <v>-1</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="29">
+        <v>1</v>
+      </c>
       <c r="J35" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L35" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,19 +3504,23 @@
       <c r="F36" s="30">
         <v>1</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="30">
+        <v>1</v>
+      </c>
       <c r="H36" s="30"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="22">
+        <v>1</v>
+      </c>
       <c r="J36" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L36" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L36" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3382,21 +3540,25 @@
         <v>1</v>
       </c>
       <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="30">
+        <v>1</v>
+      </c>
       <c r="H37" s="30">
         <v>1</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="22">
+        <v>1</v>
+      </c>
       <c r="J37" s="38">
         <v>4</v>
       </c>
       <c r="K37" s="15">
         <f>SUM(E37:J37)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L37" s="39">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142856</v>
+        <f t="shared" si="0"/>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3415,22 +3577,28 @@
       <c r="E38" s="25">
         <v>1</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38" s="31">
+        <v>1</v>
+      </c>
+      <c r="H38" s="27">
+        <v>1</v>
+      </c>
       <c r="I38" s="27">
         <v>-1</v>
       </c>
       <c r="J38" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L38" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3452,19 +3620,25 @@
       <c r="F39" s="29">
         <v>1</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="G39" s="29">
+        <v>1</v>
+      </c>
+      <c r="H39" s="26">
+        <v>1</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1</v>
+      </c>
       <c r="J39" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L39" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L39" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3488,17 +3662,19 @@
         <v>1</v>
       </c>
       <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="22">
+        <v>1</v>
+      </c>
       <c r="J40" s="37">
         <v>5</v>
       </c>
       <c r="K40" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L40" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L40" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3517,22 +3693,26 @@
       <c r="E41" s="22">
         <v>1</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
       <c r="G41" s="30"/>
       <c r="H41" s="30">
         <v>1</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="30">
+        <v>1</v>
+      </c>
       <c r="J41" s="37">
         <v>5</v>
       </c>
       <c r="K41" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L41" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L41" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3556,17 +3736,19 @@
         <v>-1</v>
       </c>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25">
+        <v>1</v>
+      </c>
       <c r="J42" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L42" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L42" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3585,22 +3767,28 @@
       <c r="E43" s="26">
         <v>1</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="19"/>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1</v>
+      </c>
       <c r="I43" s="27">
         <v>-1</v>
       </c>
       <c r="J43" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L43" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3620,21 +3808,25 @@
         <v>1</v>
       </c>
       <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="G44" s="30">
+        <v>1</v>
+      </c>
       <c r="H44" s="30">
         <v>-1</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="30">
+        <v>1</v>
+      </c>
       <c r="J44" s="37">
         <v>3</v>
       </c>
       <c r="K44" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L44" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L44" s="39">
-        <f t="shared" si="1"/>
-        <v>2.1428571428571428</v>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3653,22 +3845,28 @@
       <c r="E45" s="22">
         <v>1</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="28"/>
+      <c r="F45" s="30">
+        <v>1</v>
+      </c>
+      <c r="G45" s="30">
+        <v>1</v>
+      </c>
+      <c r="H45" s="28">
+        <v>1</v>
+      </c>
       <c r="I45" s="27">
         <v>-1</v>
       </c>
       <c r="J45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L45" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3692,17 +3890,19 @@
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25">
+        <v>1</v>
+      </c>
       <c r="J46" s="37">
         <v>4</v>
       </c>
       <c r="K46" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L46" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L46" s="39">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142856</v>
+        <v>82.35294117647058</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3722,8 +3922,12 @@
         <v>1</v>
       </c>
       <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="29">
+        <v>1</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
       <c r="I47" s="27">
         <v>-1</v>
       </c>
@@ -3731,12 +3935,12 @@
         <v>4</v>
       </c>
       <c r="K47" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L47" s="39">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L47" s="39">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428568</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,17 +3964,19 @@
         <v>1</v>
       </c>
       <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="22">
+        <v>1</v>
+      </c>
       <c r="J48" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L48" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L48" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714284</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3789,22 +3995,28 @@
       <c r="E49" s="22">
         <v>1</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="30">
+        <v>1</v>
+      </c>
       <c r="G49" s="30">
         <v>-1</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="H49" s="22">
+        <v>1</v>
+      </c>
+      <c r="I49" s="22">
+        <v>1</v>
+      </c>
       <c r="J49" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L49" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3823,22 +4035,28 @@
       <c r="E50" s="25">
         <v>1</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+      <c r="H50" s="27">
+        <v>1</v>
+      </c>
       <c r="I50" s="27">
         <v>-1</v>
       </c>
       <c r="J50" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L50" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3853,22 +4071,26 @@
       <c r="E51" s="26">
         <v>1</v>
       </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="29">
+        <v>1</v>
+      </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29">
         <v>-1</v>
       </c>
-      <c r="I51" s="29"/>
+      <c r="I51" s="29">
+        <v>1</v>
+      </c>
       <c r="J51" s="37">
         <v>3</v>
       </c>
       <c r="K51" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L51" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L51" s="39">
-        <f t="shared" si="1"/>
-        <v>2.1428571428571428</v>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3888,8 +4110,12 @@
         <v>1</v>
       </c>
       <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="30">
+        <v>1</v>
+      </c>
+      <c r="H52" s="28">
+        <v>1</v>
+      </c>
       <c r="I52" s="35">
         <v>0.5</v>
       </c>
@@ -3897,12 +4123,12 @@
         <v>5</v>
       </c>
       <c r="K52" s="15">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="L52" s="39">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L52" s="39">
-        <f t="shared" si="1"/>
-        <v>4.6428571428571432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3921,9 +4147,13 @@
       <c r="E53" s="22">
         <v>1</v>
       </c>
-      <c r="F53" s="30"/>
+      <c r="F53" s="30">
+        <v>1</v>
+      </c>
       <c r="G53" s="30"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="28">
+        <v>1</v>
+      </c>
       <c r="I53" s="27">
         <v>-1</v>
       </c>
@@ -3931,12 +4161,12 @@
         <v>4</v>
       </c>
       <c r="K53" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L53" s="39">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L53" s="39">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428568</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3959,18 +4189,20 @@
       <c r="G54" s="30">
         <v>1</v>
       </c>
-      <c r="H54" s="25"/>
+      <c r="H54" s="25">
+        <v>1</v>
+      </c>
       <c r="I54" s="25"/>
       <c r="J54" s="37">
         <v>3</v>
       </c>
       <c r="K54" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L54" s="39">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L54" s="39">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285716</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3993,18 +4225,22 @@
         <v>1</v>
       </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="H55" s="26">
+        <v>1</v>
+      </c>
+      <c r="I55" s="26">
+        <v>1</v>
+      </c>
       <c r="J55" s="37">
         <v>4</v>
       </c>
       <c r="K55" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L55" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L55" s="39">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142856</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4024,7 +4260,9 @@
         <v>1</v>
       </c>
       <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
+      <c r="G56" s="30">
+        <v>1</v>
+      </c>
       <c r="H56" s="28"/>
       <c r="I56" s="35">
         <v>1</v>
@@ -4033,12 +4271,12 @@
         <v>5</v>
       </c>
       <c r="K56" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L56" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L56" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4057,22 +4295,28 @@
       <c r="E57" s="22">
         <v>1</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="28"/>
+      <c r="F57" s="30">
+        <v>1</v>
+      </c>
+      <c r="G57" s="30">
+        <v>1</v>
+      </c>
+      <c r="H57" s="28">
+        <v>1</v>
+      </c>
       <c r="I57" s="27">
         <v>-1</v>
       </c>
       <c r="J57" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L57" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4092,21 +4336,25 @@
         <v>1</v>
       </c>
       <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="28"/>
+      <c r="G58" s="30">
+        <v>1</v>
+      </c>
+      <c r="H58" s="28">
+        <v>1</v>
+      </c>
       <c r="I58" s="35">
         <v>0</v>
       </c>
       <c r="J58" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L58" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L58" s="39">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4125,25 +4373,32 @@
       <c r="E59" s="25">
         <v>1</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F59" s="31">
+        <v>1</v>
+      </c>
       <c r="G59" s="31">
         <v>1</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="H59" s="25">
+        <v>1</v>
+      </c>
+      <c r="I59" s="25">
+        <v>1</v>
+      </c>
       <c r="J59" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L59" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L59" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L59" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D59">
     <sortCondition ref="D3:D59"/>
     <sortCondition sortBy="cellColor" ref="A3:A59" dxfId="0"/>
